--- a/webapi/upload/file/20190815/2cbded27cb058e565d8cf2b8d8d77ef6.xlsx
+++ b/webapi/upload/file/20190815/2cbded27cb058e565d8cf2b8d8d77ef6.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="487"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="487" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="园区运营服务平台" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>企业认证</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -692,16 +693,131 @@
 2、钉钉PC工作台中免登PC后台：8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>明细</t>
+  </si>
+  <si>
+    <t>工时(人/天)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价（元/天）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计（元）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织架构同步</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门同步</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员同步</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位同步</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步失败发送邮件或钉钉消息给指定人员</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤同步</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤同步</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试登记表同步</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能性测试、兼容性测试、集成交付测试</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部署</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供项目验收后1年内免费运维服务，包括系统Bug修改及系统技术咨询及支持。1年后服务费10000元/年。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计报价（税前）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计报价（税后）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1、可提供全部源代码，知识产权归甲方所有。  
+2、本项目开发工期进度表附后。  
+3、本报价为预报价，基于需求的进一步沟通明确，或有调整，具体以合同为准。  
+4、本报价不包含系统中使用及涉及到的第三方平台或服务所产生的费用，不包含可能的第三方评测费用，服务器的申请、使用及部署维护费用。</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="General&quot;万&quot;"/>
     <numFmt numFmtId="177" formatCode="General&quot;人&quot;&quot;天&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,8 +909,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,6 +950,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -901,6 +1047,51 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="114" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="114" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1499,4 +1690,326 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5">
+      <c r="A1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="26">
+        <v>10</v>
+      </c>
+      <c r="E2" s="27">
+        <v>2800</v>
+      </c>
+      <c r="F2" s="27">
+        <f>D2*E2</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="26">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27">
+        <v>2800</v>
+      </c>
+      <c r="F3" s="27">
+        <f t="shared" ref="F3:F9" si="0">D3*E3</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="26">
+        <v>8</v>
+      </c>
+      <c r="E4" s="27">
+        <v>2800</v>
+      </c>
+      <c r="F4" s="27">
+        <f t="shared" si="0"/>
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27">
+        <v>2800</v>
+      </c>
+      <c r="F5" s="27">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="26">
+        <v>6</v>
+      </c>
+      <c r="E6" s="27">
+        <v>2800</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" si="0"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="26">
+        <v>8</v>
+      </c>
+      <c r="E7" s="27">
+        <v>2800</v>
+      </c>
+      <c r="F7" s="27">
+        <f t="shared" si="0"/>
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="26">
+        <v>5</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30">
+        <f>SUM(F2:F9)</f>
+        <v>131900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="29"/>
+      <c r="B12" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32">
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30">
+        <f>F11*D12</f>
+        <v>7914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="30">
+        <f>SUM(F11:F12)</f>
+        <v>139814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A14:F20"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>